--- a/result.xlsx
+++ b/result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,10 +418,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Help fashion-challenged Danny pick a swell outfit for his big date with Jamie</v>
+        <v>How to Play</v>
       </c>
       <c r="B2" t="str">
-        <v>Загвар өмсөгч Дэннид Жэймитэй хийх том болзоондоо гоё хувцас сонгоход нь туслаарай</v>
+        <v>Хэрхэн тоглох тухай</v>
       </c>
       <c r="C2" t="str">
         <v/>
@@ -432,10 +432,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Hit 'Stop' to select the drawer containing the costume you want Danny to wear.</v>
+        <v>Abort</v>
       </c>
       <c r="B3" t="str">
-        <v>'Зогс' дээр дарж Даннигийн өмсөхийг хүссэн хувцасны шүүгээг сонгоно уу.</v>
+        <v>Цуцлах</v>
       </c>
       <c r="C3" t="str">
         <v/>
@@ -446,10 +446,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Please don't show me this dialogue again</v>
+        <v>One Spin away from a Jackpot</v>
       </c>
       <c r="B4" t="str">
-        <v>Энэ харилцан яриаг надад дахиж битгий үзүүлээрэй</v>
+        <v>Жакпот хийхэд ганц эргүүлэх дутуу</v>
       </c>
       <c r="C4" t="str">
         <v/>
@@ -460,10 +460,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Avoid</v>
+        <v>7's IN THIS ORDER</v>
       </c>
       <c r="B5" t="str">
-        <v>зайлсхий</v>
+        <v>ЭНЭ ДАРААЛЛААР 7</v>
       </c>
       <c r="C5" t="str">
         <v/>
@@ -474,10 +474,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Where's Danny</v>
+        <v>5 Jackpot symbols on any winning line will award Progressive Jackpot when playing MAX bet!</v>
       </c>
       <c r="B6" t="str">
-        <v>Данни хаана байна</v>
+        <v>МАКС бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -488,10 +488,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Find</v>
+        <v>50 Line Chart</v>
       </c>
       <c r="B7" t="str">
-        <v>Хай</v>
+        <v>50 шугаман график</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -502,10 +502,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>That miserable little punk Danny is trying to hide from me again. I'll make it worth your while if you help me find him. But I'd rather avoid letting Jamie know I'm looking for Danny so let's avoid her.</v>
+        <v>3 or more Scatter symbols will award 10 Free spins</v>
       </c>
       <c r="B8" t="str">
-        <v>Тэр хөөрхийлөлтэй бяцхан панк Дэнни дахиад л надаас нуугдах гэж байна. Хэрэв та түүнийг олоход надад тусалбал би үүнийг үнэ цэнэтэй болгоно. Гэхдээ би Дэнниг хайж байгаагаа Жэймид мэдэгдэхээс зайлсхийсэн нь дээр, тиймээс түүнээс зайлсхийцгээе.</v>
+        <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -516,10 +516,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Click on the spots you think Danny might be hiding. Likely spots earn you coins.</v>
+        <v>3D Slots</v>
       </c>
       <c r="B9" t="str">
-        <v>Дэннигийн нуугдаж байгаа гэж бодож буй газрууд дээр дарна уу. Магадгүй цэгүүд танд зоос олох болно.</v>
+        <v>3D слот</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -530,21 +530,175 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>The round ends if you find Jamie</v>
+        <v>1st and 5th reels are wild during Jackpot Can't Lose spins! HUGE WIN possibilities!</v>
       </c>
       <c r="B10" t="str">
-        <v>Хэрэв та Жэймиг олвол тойрог дуусна</v>
+        <v>Жакпот алдаж болохгүйг эргүүлэх үед 1 ба 5-р reel нь вайлд байдаг! МАШ ИХЭЭР ЯЛАХ боломжууд!</v>
       </c>
       <c r="C10" t="str">
         <v/>
       </c>
       <c r="D10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Click Anywhere to Skip Intro</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Танилцуулгыг алгасах бол хаана ч хамаагүй дарна уу</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>5, 10, or 15 spins!</v>
+      </c>
+      <c r="B12" t="str">
+        <v>5, 10 эсвэл 15 удаагийн эргэлт!</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Behind each tile is either a Diamond or a Bomb. Uncover Diamonds to increase your prize!</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Дөрвөлжин бүрийн ард Очир эрдэнэ эсвэл Тэсрэх бөмбөг байгаа. Шагналаа нэмэгдүүлэхийн тулд Очир эрдэнийг нээ!</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>= 10 spins with a 2x multiplier</v>
+      </c>
+      <c r="B14" t="str">
+        <v>= 2х үржүүлсэн 10 удаагийн эргэлт</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>= 10 spins with a 3x multiplier</v>
+      </c>
+      <c r="B15" t="str">
+        <v>= 3x үржүүлсэн 10 удаагийн эргэлт</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>3 or more Barrels triggers the Bonus Round!</v>
+      </c>
+      <c r="B16" t="str">
+        <v>3 эсвэл түүнээс дээш Баррель нь бонус үеийг идэвхжүүлнэ!</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Jaguar</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Ягуар</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Multiplier Maze</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Үржүүлэгч лабиринт</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>= 10 spins with a 1x multiplier</v>
+      </c>
+      <c r="B19" t="str">
+        <v>= 1x үржүүлсэн 10 удаагийн эргэлт</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Access is not allowed from your region.</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Таны бүс нутгаас нэвтрэх эрхгүй байна.</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Account error:</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Дансанд алдаа гарлаа:</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -397,308 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>original English sentence</v>
-      </c>
-      <c r="B1" t="str">
-        <v>original translation</v>
-      </c>
-      <c r="C1" t="str">
-        <v>modified translation</v>
-      </c>
-      <c r="D1" t="str">
-        <v>reason</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>How to Play</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Хэрхэн тоглох тухай</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Abort</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Цуцлах</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>One Spin away from a Jackpot</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Жакпот хийхэд ганц эргүүлэх дутуу</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>7's IN THIS ORDER</v>
-      </c>
-      <c r="B5" t="str">
-        <v>ЭНЭ ДАРААЛЛААР 7</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5 Jackpot symbols on any winning line will award Progressive Jackpot when playing MAX bet!</v>
-      </c>
-      <c r="B6" t="str">
-        <v>МАКС бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>50 Line Chart</v>
-      </c>
-      <c r="B7" t="str">
-        <v>50 шугаман график</v>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>3 or more Scatter symbols will award 10 Free spins</v>
-      </c>
-      <c r="B8" t="str">
-        <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>3D Slots</v>
-      </c>
-      <c r="B9" t="str">
-        <v>3D слот</v>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>1st and 5th reels are wild during Jackpot Can't Lose spins! HUGE WIN possibilities!</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Жакпот алдаж болохгүйг эргүүлэх үед 1 ба 5-р reel нь вайлд байдаг! МАШ ИХЭЭР ЯЛАХ боломжууд!</v>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Click Anywhere to Skip Intro</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Танилцуулгыг алгасах бол хаана ч хамаагүй дарна уу</v>
-      </c>
-      <c r="C11" t="str">
-        <v/>
-      </c>
-      <c r="D11" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>5, 10, or 15 spins!</v>
-      </c>
-      <c r="B12" t="str">
-        <v>5, 10 эсвэл 15 удаагийн эргэлт!</v>
-      </c>
-      <c r="C12" t="str">
-        <v/>
-      </c>
-      <c r="D12" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Behind each tile is either a Diamond or a Bomb. Uncover Diamonds to increase your prize!</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Дөрвөлжин бүрийн ард Очир эрдэнэ эсвэл Тэсрэх бөмбөг байгаа. Шагналаа нэмэгдүүлэхийн тулд Очир эрдэнийг нээ!</v>
-      </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>= 10 spins with a 2x multiplier</v>
-      </c>
-      <c r="B14" t="str">
-        <v>= 2х үржүүлсэн 10 удаагийн эргэлт</v>
-      </c>
-      <c r="C14" t="str">
-        <v/>
-      </c>
-      <c r="D14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>= 10 spins with a 3x multiplier</v>
-      </c>
-      <c r="B15" t="str">
-        <v>= 3x үржүүлсэн 10 удаагийн эргэлт</v>
-      </c>
-      <c r="C15" t="str">
-        <v/>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>3 or more Barrels triggers the Bonus Round!</v>
-      </c>
-      <c r="B16" t="str">
-        <v>3 эсвэл түүнээс дээш Баррель нь бонус үеийг идэвхжүүлнэ!</v>
-      </c>
-      <c r="C16" t="str">
-        <v/>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>Jaguar</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Ягуар</v>
-      </c>
-      <c r="C17" t="str">
-        <v/>
-      </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Multiplier Maze</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Үржүүлэгч лабиринт</v>
-      </c>
-      <c r="C18" t="str">
-        <v/>
-      </c>
-      <c r="D18" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>= 10 spins with a 1x multiplier</v>
-      </c>
-      <c r="B19" t="str">
-        <v>= 1x үржүүлсэн 10 удаагийн эргэлт</v>
-      </c>
-      <c r="C19" t="str">
-        <v/>
-      </c>
-      <c r="D19" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Access is not allowed from your region.</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Таны бүс нутгаас нэвтрэх эрхгүй байна.</v>
-      </c>
-      <c r="C20" t="str">
-        <v/>
-      </c>
-      <c r="D20" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>Account error:</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Дансанд алдаа гарлаа:</v>
-      </c>
-      <c r="C21" t="str">
-        <v/>
-      </c>
-      <c r="D21" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -397,13 +397,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>original English sentence</v>
+      </c>
+      <c r="B1" t="str">
+        <v>original translation</v>
+      </c>
+      <c r="C1" t="str">
+        <v>modified translation</v>
+      </c>
+      <c r="D1" t="str">
+        <v>reason of correction</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Help fashion-challenged Danny pick a swell outfit for his big date with Jamie.</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Загвар өмсөгч Дэннид Жэймитэй хийх том болзоондоо гоё хувцас сонгоход нь туслаарай.</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Hit 'Stop' to select the drawer containing the costume you want Danny to wear.</v>
+      </c>
+      <c r="B3" t="str">
+        <v>"Зогс" дээр дарж Даннигийн өмсөхийг хүссэн хувцасны шүүгээг сонгоно уу.</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Please don't show me this dialogue again.</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Энэ харилцан яриаг надад дахиж битгий үзүүлээрэй.</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Avoid</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Зайлсхий</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Where's Danny?</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Данни хаана байна</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Find</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Хай</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>That miserable little punk Danny is trying to hide from me again. I'll make it worth your while if you help me find him. But I'd rather avoid letting Jamie know I'm looking for Danny so let's avoid her.</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Тэр хөөрхийлөлтэй бяцхан панк Дэнни дахиад л надаас нуугдах гэж байна. Хэрэв та түүнийг олоход надад тусалбал би үүнийг үнэ цэнэтэй болгоно. Гэхдээ би Дэнниг хайж байгаагаа Жэймид мэдэгдэхээс зайлсхийсэн нь дээр, тиймээс түүнээс зайлсхийцгээе.</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Click on the spots you think Danny might be hiding. Likely spots earn you coins.</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Дэннигийн нуугдаж байгаа гэж бодож буй газрууд дээр дарна уу. Магадгүй цэгүүд танд зоос олох болно.</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>The round ends if you find Jamie</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Хэрэв та Жэймиг олвол тойрог дуусна</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Help fashion-challenged Danny pick a swell outfit for his big date with Jamie.</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Загвар өмсөгч Дэннид Жэймитэй хийх том болзоондоо гоё хувцас сонгоход нь туслаарай.</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Hit 'Stop' to select the drawer containing the costume you want Danny to wear.</v>
+      </c>
+      <c r="B12" t="str">
+        <v>"Зогс" дээр дарж Даннигийн өмсөхийг хүссэн хувцасны шүүгээг сонгоно уу.</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Please don't show me this dialogue again.</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Энэ харилцан яриаг надад дахиж битгий үзүүлээрэй</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Avoid</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Зайлсхий</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Where's Danny?</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Данни хаана байна</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Find</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Хай</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>That miserable little punk Danny is trying to hide from me again. I'll make it worth your while if you help me find him. But I'd rather avoid letting Jamie know I'm looking for Danny so let's avoid her.</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Тэр хөөрхийлөлтэй бяцхан панк Дэнни дахиад л надаас нуугдах гэж байна. Хэрэв та түүнийг олоход надад тусалбал би үүнийг үнэ цэнэтэй болгоно. Гэхдээ би Дэнниг хайж байгаагаа Жэймид мэдэгдэхээс зайлсхийсэн нь дээр, тиймээс түүнээс зайлсхийцгээе.</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Click on the spots you think Danny might be hiding. Likely spots earn you coins.</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Дэннигийн нуугдаж байгаа гэж бодож буй газрууд дээр дарна уу. Магадгүй цэгүүд танд зоос олох болно.</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>The round ends if you find Jamie</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Хэрэв та Жэймиг олвол тойрог дуусна</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,10 +418,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Help fashion-challenged Danny pick a swell outfit for his big date with Jamie</v>
+        <v>There was a problem authenticating your account.</v>
       </c>
       <c r="B2" t="str">
-        <v>Загвар өмсөгч Дэннид Жэймитэй хийх том болзоондоо гоё хувцас сонгоход нь туслаарай</v>
+        <v>Таны дансыг баталгаажуулахад асуудал гарлаа.</v>
       </c>
       <c r="C2" t="str">
         <v/>
@@ -432,10 +432,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Please don't show me this dialogue again</v>
+        <v>Accumulation Warning</v>
       </c>
       <c r="B3" t="str">
-        <v>Энэ харилцан яриаг надад дахиж битгий үзүүлээрэй</v>
+        <v>Хуримтлалын анхааруулга</v>
       </c>
       <c r="C3" t="str">
         <v/>
@@ -446,10 +446,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Avoid</v>
+        <v>Additional Win</v>
       </c>
       <c r="B4" t="str">
-        <v>Зайлсхий</v>
+        <v>Нэмэлт ялалт</v>
       </c>
       <c r="C4" t="str">
         <v/>
@@ -460,10 +460,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Where's Danny</v>
+        <v>Admit One To</v>
       </c>
       <c r="B5" t="str">
-        <v>Данни хаана байна</v>
+        <v>Эрх нэг</v>
       </c>
       <c r="C5" t="str">
         <v/>
@@ -474,10 +474,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Find</v>
+        <v>Advanced</v>
       </c>
       <c r="B6" t="str">
-        <v>Хай</v>
+        <v>Дэвшилтэт</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -488,10 +488,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>That miserable little punk Danny is trying to hide from me again. I'll make it worth your while if you help me find him. But I'd rather avoid letting Jamie know I'm looking for Danny so let's avoid her.</v>
+        <v>After</v>
       </c>
       <c r="B7" t="str">
-        <v>Тэр хөөрхийлөлтэй бяцхан панк Дэнни дахиад л надаас нуугдах гэж байна. Хэрэв та түүнийг олоход надад тусалбал би үүнийг үнэ цэнэтэй болгоно. Гэхдээ би Дэнниг хайж байгаагаа Жэймид мэдэгдэхээс зайлсхийсэн нь дээр, тиймээс түүнээс зайлсхийцгээе.</v>
+        <v>Дараа нь</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -502,10 +502,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Click on the spots you think Danny might be hiding. Likely spots earn you coins.</v>
+        <v>Bonus Bell</v>
       </c>
       <c r="B8" t="str">
-        <v>Дэннигийн нуугдаж байгаа гэж бодож буй газрууд дээр дарна уу. Магадгүй цэгүүд танд зоос олох болно.</v>
+        <v>Бонус хонх</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -516,10 +516,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>The round ends if you find Jamie</v>
+        <v>3 or more Bell icons triggers the Bonus Round.</v>
       </c>
       <c r="B9" t="str">
-        <v>Хэрэв та Жэймиг олвол тойрог дуусна</v>
+        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -530,10 +530,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Click Anywhere to Skip Intro</v>
+        <v>BOXCAR</v>
       </c>
       <c r="B10" t="str">
-        <v>Танилцуулгыг алгасах бол хаана ч хамаагүй дарна уу</v>
+        <v>БИТҮҮ ВАГОН</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -544,21 +544,161 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>5, 10, or 15 spins!</v>
+        <v>CASEY JONES FREE SPINS</v>
       </c>
       <c r="B11" t="str">
-        <v>5, 10 эсвэл 15 удаагийн эргэлт!</v>
+        <v>КЭЙСИ ЖОНС ҮНЭГҮЙ ЭРГҮҮЛЭХ ЭРХ</v>
       </c>
       <c r="C11" t="str">
         <v/>
       </c>
       <c r="D11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>There was a problem authenticating your account.</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Таны дансыг баталгаажуулахад асуудал гарлаа.</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Accumulation Warning</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Хуримтлалын анхааруулга</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Additional Win</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Нэмэлт ялалт</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Admit One To</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Эрх нэг</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Advanced</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Дэвшилтэт</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>After</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Дараа нь</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Bonus Bell</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Бонус хонх</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>3 or more Bell icons triggers the Bonus Round.</v>
+      </c>
+      <c r="B19" t="str">
+        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>BOXCAR</v>
+      </c>
+      <c r="B20" t="str">
+        <v>БИТҮҮ ВАГОН</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>CASEY JONES FREE SPINS</v>
+      </c>
+      <c r="B21" t="str">
+        <v>КЭЙСИ ЖОНС ҮНЭГҮЙ ЭРГҮҮЛЭХ ЭРХ</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,10 +418,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>There was a problem authenticating your account.</v>
+        <v>How to Play</v>
       </c>
       <c r="B2" t="str">
-        <v>Таны дансыг баталгаажуулахад асуудал гарлаа.</v>
+        <v>Хэрхэн тоглох тухай</v>
       </c>
       <c r="C2" t="str">
         <v/>
@@ -432,10 +432,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Accumulation Warning</v>
+        <v>Abort</v>
       </c>
       <c r="B3" t="str">
-        <v>Хуримтлалын анхааруулга</v>
+        <v>Цуцлах</v>
       </c>
       <c r="C3" t="str">
         <v/>
@@ -446,10 +446,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Additional Win</v>
+        <v>One Spin away from a Jackpot</v>
       </c>
       <c r="B4" t="str">
-        <v>Нэмэлт ялалт</v>
+        <v>Жакпот хийхэд ганц эргүүлэх дутуу</v>
       </c>
       <c r="C4" t="str">
         <v/>
@@ -460,10 +460,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Admit One To</v>
+        <v>7's IN THIS ORDER</v>
       </c>
       <c r="B5" t="str">
-        <v>Эрх нэг</v>
+        <v>ЭНЭ ДАРААЛЛААР 7</v>
       </c>
       <c r="C5" t="str">
         <v/>
@@ -474,10 +474,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Advanced</v>
+        <v>5 Jackpot symbols on any winning line will award Progressive Jackpot when playing MAX bet!</v>
       </c>
       <c r="B6" t="str">
-        <v>Дэвшилтэт</v>
+        <v>МАКС бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -488,10 +488,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>After</v>
+        <v>50 Line Chart</v>
       </c>
       <c r="B7" t="str">
-        <v>Дараа нь</v>
+        <v>50 шугаман график</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -502,10 +502,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bonus Bell</v>
+        <v>3 or more Scatter symbols will award 10 Free spins</v>
       </c>
       <c r="B8" t="str">
-        <v>Бонус хонх</v>
+        <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -516,10 +516,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>3 or more Bell icons triggers the Bonus Round.</v>
+        <v>1st and 5th reels are wild during Jackpot Can't Lose spins! HUGE WIN possibilities!</v>
       </c>
       <c r="B9" t="str">
-        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
+        <v>Жакпот алдаж болохгүйг эргүүлэх үед 1 ба 5-р reel нь вайлд байдаг! МАШ ИХЭЭР ЯЛАХ боломжууд!</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -530,10 +530,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>BOXCAR</v>
+        <v>Click Anywhere to Skip Intro</v>
       </c>
       <c r="B10" t="str">
-        <v>БИТҮҮ ВАГОН</v>
+        <v>Танилцуулгыг алгасах бол хаана ч хамаагүй дарна уу</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -544,10 +544,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>CASEY JONES FREE SPINS</v>
+        <v>5, 10, or 15 spins!</v>
       </c>
       <c r="B11" t="str">
-        <v>КЭЙСИ ЖОНС ҮНЭГҮЙ ЭРГҮҮЛЭХ ЭРХ</v>
+        <v>5, 10 эсвэл 15 удаагийн эргэлт!</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -558,10 +558,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>There was a problem authenticating your account.</v>
+        <v>Behind each tile is either a Diamond or a Bomb. Uncover Diamonds to increase your prize!</v>
       </c>
       <c r="B12" t="str">
-        <v>Таны дансыг баталгаажуулахад асуудал гарлаа.</v>
+        <v>Дөрвөлжин бүрийн ард Очир эрдэнэ эсвэл Тэсрэх бөмбөг байгаа. Шагналаа нэмэгдүүлэхийн тулд Очир эрдэнийг нээ!</v>
       </c>
       <c r="C12" t="str">
         <v/>
@@ -572,10 +572,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Accumulation Warning</v>
+        <v>= 10 spins with a 2x multiplier</v>
       </c>
       <c r="B13" t="str">
-        <v>Хуримтлалын анхааруулга</v>
+        <v>= 2х үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="C13" t="str">
         <v/>
@@ -586,10 +586,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Additional Win</v>
+        <v>= 10 spins with a 3x multiplier</v>
       </c>
       <c r="B14" t="str">
-        <v>Нэмэлт ялалт</v>
+        <v>= 3x үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="C14" t="str">
         <v/>
@@ -600,10 +600,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Admit One To</v>
+        <v>3 or more Barrels triggers the Bonus Round!</v>
       </c>
       <c r="B15" t="str">
-        <v>Эрх нэг</v>
+        <v>3 эсвэл түүнээс дээш Баррель нь бонус үеийг идэвхжүүлнэ!</v>
       </c>
       <c r="C15" t="str">
         <v/>
@@ -614,10 +614,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Advanced</v>
+        <v>Jaguar</v>
       </c>
       <c r="B16" t="str">
-        <v>Дэвшилтэт</v>
+        <v>Ягуар</v>
       </c>
       <c r="C16" t="str">
         <v/>
@@ -628,10 +628,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>After</v>
+        <v>Multiplier Maze</v>
       </c>
       <c r="B17" t="str">
-        <v>Дараа нь</v>
+        <v>Үржүүлэгч лабиринт</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -642,10 +642,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Bonus Bell</v>
+        <v>= 10 spins with a 1x multiplier</v>
       </c>
       <c r="B18" t="str">
-        <v>Бонус хонх</v>
+        <v>= 1x үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="C18" t="str">
         <v/>
@@ -656,10 +656,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>3 or more Bell icons triggers the Bonus Round.</v>
+        <v>Access is not allowed from your region.</v>
       </c>
       <c r="B19" t="str">
-        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
+        <v>Таны бүс нутгаас нэвтрэх эрхгүй байна.</v>
       </c>
       <c r="C19" t="str">
         <v/>
@@ -670,10 +670,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>BOXCAR</v>
+        <v>Account error:</v>
       </c>
       <c r="B20" t="str">
-        <v>БИТҮҮ ВАГОН</v>
+        <v>Дансанд алдаа гарлаа:</v>
       </c>
       <c r="C20" t="str">
         <v/>
@@ -684,21 +684,693 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>CASEY JONES FREE SPINS</v>
+        <v>There was a problem authenticating your account.</v>
       </c>
       <c r="B21" t="str">
-        <v>КЭЙСИ ЖОНС ҮНЭГҮЙ ЭРГҮҮЛЭХ ЭРХ</v>
+        <v>Таны дансыг баталгаажуулахад асуудал гарлаа.</v>
       </c>
       <c r="C21" t="str">
         <v/>
       </c>
       <c r="D21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Accumulation Warning</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Хуримтлалын анхааруулга</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Additional Win</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Нэмэлт ялалт</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Admit One To</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Эрх нэг</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Advanced</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Дэвшилтэт</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>After</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Дараа нь</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Bonus Bell</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Бонус хонх</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>3 or more Bell icons triggers the Bonus Round.</v>
+      </c>
+      <c r="B28" t="str">
+        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>3 or more Bell icons triggers the Bonus Round.</v>
+      </c>
+      <c r="B29" t="str">
+        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>3 or more Bell icons triggers the Bonus Round.</v>
+      </c>
+      <c r="B30" t="str">
+        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Search the boxcars until you find an empty one.</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Битүү вагонуудаас хоосныг олох хүртлээ хай.</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>All games</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Бүх тоглоом</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Any</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Аль ч</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>ANY 3</v>
+      </c>
+      <c r="B34" t="str">
+        <v>АЛЬ Ч 3</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>An error has occurred</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Алдаа гарсан байна</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>You have 100 spins to discover your fate. Line up Remy and Raoul with The sack of cash to continue!</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Хувь заяагаа олж мэдэхэд тань туслах 100 эргүүлэх эрх байна. Үргэлжлүүлэхийн тулд Реми, Раул хоёрыг шуудайтай мөнгөтэй жагсаа!</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>5 Forgers pays 5000</v>
+      </c>
+      <c r="B37" t="str">
+        <v>5 Хуурамч бүтээл 5000 өгнө</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>'Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай.</v>
+      </c>
+      <c r="B38" t="str">
+        <v>'Get 3 or more Art Heist icons to advance to the 'Pick a Forgery' Bonus Round.</v>
+      </c>
+      <c r="C38" t="str">
+        <v>'Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай.</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Реми, Раул хоёрт туслахын тулд дараах таван зүйлийг хийх хэрэгтэй:</v>
+      </c>
+      <c r="B40" t="str">
+        <v>To aid Remy &amp; Raoul you will need to do five things:</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Реми, Раул хоёрт туслахын тулд дараах таван зүйлийг хийх хэрэгтэй:</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Гэхдээ Реми, Раул хоёр тийм ч амархан бууж өгдөггүй. Өөр хулгай хийж үзээрэй!</v>
+      </c>
+      <c r="B41" t="str">
+        <v>But Remy and Raoul don't give up easily. Try another heist!</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Гэхдээ Реми, Раул хоёр тийм ч амархан бууж өгдөггүй. Өөр хулгай хийж үзээрэй!</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>REEL CRIME: Урлагийн бүтээлийн хулгай.</v>
+      </c>
+      <c r="B42" t="str">
+        <v>REEL CRIME: Art Heist.</v>
+      </c>
+      <c r="C42" t="str">
+        <v>REEL CRIME: Урлагийн бүтээлийн хулгай.</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>'Уран зургаа олох' бонус үеийг идэвхжүүлэх бол 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг олж аваарай.</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Get 3 or more Art Heist icons to trigger the 'Find your Painting' Bonus round.</v>
+      </c>
+      <c r="C43" t="str">
+        <v>'Уран зургаа олох' бонус үеийг идэвхжүүлэх бол 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг олж аваарай.</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно!  Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
+      </c>
+      <c r="B44" t="str">
+        <v>At least 4 of any of the Scatter Masterpiece paintings anywhere on the reels will begin a heist for that painting!  The Masterpiece paintings have a purple background.</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно!  Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Та Парисын Лувраас дэлхийн хамгийн алдартай уран зургийг хулгайлах оролдлого хийхээр шийдсэн.</v>
+      </c>
+      <c r="B45" t="str">
+        <v>You've decided to attempt a heist of the world's most famous painting from the Louvre in Paris.</v>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Таныг түүхийн номонд бичих - аль эсвэл шоронд хийх шийдэмгий зорилго!</v>
+      </c>
+      <c r="B46" t="str">
+        <v>A lofty goal but one which could secure your place in the history books - or in a cell!</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>ДАЛАЙН ЭРЭГ!</v>
+      </c>
+      <c r="B47" t="str">
+        <v>THE BEACH!</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Тайван сууж сайхан өнгөрүүлээрэй...</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Sit back and enjoy...</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Та далайн эрэгт хүрч ирлээ!</v>
+      </c>
+      <c r="B49" t="str">
+        <v>You've made it to the beach!</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Мөн том шуудай мөнгө</v>
+      </c>
+      <c r="B50" t="str">
+        <v>And a Big Sack of Cash</v>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>(Хар зах)</v>
+      </c>
+      <c r="B51" t="str">
+        <v>(The Black Market)</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Замын хаалт!</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Road Bloque!</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Урлагийн бүтээлийн хулгайн урамшууллыг анхааралтай ажиглаарай!</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Keep an eye out for Art Heist bonuses!</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>ЗУГААТАЙ тоглох</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Play for FUN</v>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>БОДИТООР тоглох</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Play for REAL</v>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Итгэмээргүй даалгавар</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Mission Implausible</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Гүйгээрэй Раул гүйгээрэй</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Run Raoul Run</v>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Мөнгөтэй эрхэм</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Monsieur Moneybags</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Аз жаргалгүй биеэ үнэлэгч</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Unhappy Hooker</v>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Гүн унагах</v>
+      </c>
+      <c r="B60" t="str">
+        <v>The Duke Drops In</v>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Би Тарзан чи яв!</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Me Tarzan You Gone!</v>
+      </c>
+      <c r="C61" t="str">
+        <v/>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Мона Реми</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Mona Remy</v>
+      </c>
+      <c r="C62" t="str">
+        <v/>
+      </c>
+      <c r="D62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Гүйгээрэй Реми гүйгээрэй</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Run Remy Run</v>
+      </c>
+      <c r="C63" t="str">
+        <v/>
+      </c>
+      <c r="D63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Тэр хүнд биш</v>
+      </c>
+      <c r="B64" t="str">
+        <v>He Ain't Heavy</v>
+      </c>
+      <c r="C64" t="str">
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Таагүй аялал</v>
+      </c>
+      <c r="B65" t="str">
+        <v>A Bad Trip</v>
+      </c>
+      <c r="C65" t="str">
+        <v/>
+      </c>
+      <c r="D65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Chariot du Paddy</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Chariot du Paddy</v>
+      </c>
+      <c r="C66" t="str">
+        <v/>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Sacre Bleu!</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Sacre Bleu!</v>
+      </c>
+      <c r="C67" t="str">
+        <v/>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Цагдаагийн дохиолол</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Gendarme Alarm</v>
+      </c>
+      <c r="C68" t="str">
+        <v/>
+      </c>
+      <c r="D68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Зугтаа</v>
+      </c>
+      <c r="B69" t="str">
+        <v>The Getaway</v>
+      </c>
+      <c r="C69" t="str">
+        <v/>
+      </c>
+      <c r="D69" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D69"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -460,10 +460,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>7's IN THIS ORDER</v>
+        <v>5 Jackpot symbols on any winning line will award Progressive Jackpot when playing MAX bet!</v>
       </c>
       <c r="B5" t="str">
-        <v>ЭНЭ ДАРААЛЛААР 7</v>
+        <v>МАКС бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
       </c>
       <c r="C5" t="str">
         <v/>
@@ -474,10 +474,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>5 Jackpot symbols on any winning line will award Progressive Jackpot when playing MAX bet!</v>
+        <v>50 Line Chart</v>
       </c>
       <c r="B6" t="str">
-        <v>МАКС бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
+        <v>50 шугаман график</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -488,10 +488,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>50 Line Chart</v>
+        <v>3 or more Scatter symbols will award 10 Free spins</v>
       </c>
       <c r="B7" t="str">
-        <v>50 шугаман график</v>
+        <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -502,10 +502,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>3 or more Scatter symbols will award 10 Free spins</v>
+        <v>1st and 5th reels are wild during Jackpot Can't Lose spins! HUGE WIN possibilities!</v>
       </c>
       <c r="B8" t="str">
-        <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
+        <v>Жакпот алдаж болохгүйг эргүүлэх үед 1 ба 5-р reel нь вайлд байдаг! МАШ ИХЭЭР ЯЛАХ боломжууд!</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -516,10 +516,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>1st and 5th reels are wild during Jackpot Can't Lose spins! HUGE WIN possibilities!</v>
+        <v>Click Anywhere to Skip Intro</v>
       </c>
       <c r="B9" t="str">
-        <v>Жакпот алдаж болохгүйг эргүүлэх үед 1 ба 5-р reel нь вайлд байдаг! МАШ ИХЭЭР ЯЛАХ боломжууд!</v>
+        <v>Танилцуулгыг алгасах бол хаана ч хамаагүй дарна уу</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -530,10 +530,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Click Anywhere to Skip Intro</v>
+        <v>5, 10, or 15 spins!</v>
       </c>
       <c r="B10" t="str">
-        <v>Танилцуулгыг алгасах бол хаана ч хамаагүй дарна уу</v>
+        <v>5, 10 эсвэл 15 удаагийн эргэлт!</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -544,10 +544,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>5, 10, or 15 spins!</v>
+        <v>Behind each tile is either a Diamond or a Bomb. Uncover Diamonds to increase your prize!</v>
       </c>
       <c r="B11" t="str">
-        <v>5, 10 эсвэл 15 удаагийн эргэлт!</v>
+        <v>Дөрвөлжин бүрийн ард Очир эрдэнэ эсвэл Тэсрэх бөмбөг байгаа. Шагналаа нэмэгдүүлэхийн тулд Очир эрдэнийг нээ!</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -558,10 +558,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Behind each tile is either a Diamond or a Bomb. Uncover Diamonds to increase your prize!</v>
+        <v>= 10 spins with a 2x multiplier</v>
       </c>
       <c r="B12" t="str">
-        <v>Дөрвөлжин бүрийн ард Очир эрдэнэ эсвэл Тэсрэх бөмбөг байгаа. Шагналаа нэмэгдүүлэхийн тулд Очир эрдэнийг нээ!</v>
+        <v>= 2х үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="C12" t="str">
         <v/>
@@ -572,10 +572,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>= 10 spins with a 2x multiplier</v>
+        <v>= 10 spins with a 3x multiplier</v>
       </c>
       <c r="B13" t="str">
-        <v>= 2х үржүүлсэн 10 удаагийн эргэлт</v>
+        <v>= 3x үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="C13" t="str">
         <v/>
@@ -586,10 +586,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>= 10 spins with a 3x multiplier</v>
+        <v>3 or more Barrels triggers the Bonus Round!</v>
       </c>
       <c r="B14" t="str">
-        <v>= 3x үржүүлсэн 10 удаагийн эргэлт</v>
+        <v>3 эсвэл түүнээс дээш Баррель нь бонус үеийг идэвхжүүлнэ!</v>
       </c>
       <c r="C14" t="str">
         <v/>
@@ -600,10 +600,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>3 or more Barrels triggers the Bonus Round!</v>
+        <v>Jaguar</v>
       </c>
       <c r="B15" t="str">
-        <v>3 эсвэл түүнээс дээш Баррель нь бонус үеийг идэвхжүүлнэ!</v>
+        <v>Ягуар</v>
       </c>
       <c r="C15" t="str">
         <v/>
@@ -614,10 +614,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Jaguar</v>
+        <v>Multiplier Maze</v>
       </c>
       <c r="B16" t="str">
-        <v>Ягуар</v>
+        <v>Үржүүлэгч лабиринт</v>
       </c>
       <c r="C16" t="str">
         <v/>
@@ -628,10 +628,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Multiplier Maze</v>
+        <v>= 10 spins with a 1x multiplier</v>
       </c>
       <c r="B17" t="str">
-        <v>Үржүүлэгч лабиринт</v>
+        <v>= 1x үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="C17" t="str">
         <v/>
@@ -642,10 +642,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>= 10 spins with a 1x multiplier</v>
+        <v>Access is not allowed from your region.</v>
       </c>
       <c r="B18" t="str">
-        <v>= 1x үржүүлсэн 10 удаагийн эргэлт</v>
+        <v>Таны бүс нутгаас нэвтрэх эрхгүй байна.</v>
       </c>
       <c r="C18" t="str">
         <v/>
@@ -656,10 +656,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Access is not allowed from your region.</v>
+        <v>Account error:</v>
       </c>
       <c r="B19" t="str">
-        <v>Таны бүс нутгаас нэвтрэх эрхгүй байна.</v>
+        <v>Дансанд алдаа гарлаа:</v>
       </c>
       <c r="C19" t="str">
         <v/>
@@ -670,10 +670,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Account error:</v>
+        <v>There was a problem authenticating your account.</v>
       </c>
       <c r="B20" t="str">
-        <v>Дансанд алдаа гарлаа:</v>
+        <v>Таны дансыг баталгаажуулахад асуудал гарлаа.</v>
       </c>
       <c r="C20" t="str">
         <v/>
@@ -684,10 +684,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>There was a problem authenticating your account.</v>
+        <v>Accumulation Warning</v>
       </c>
       <c r="B21" t="str">
-        <v>Таны дансыг баталгаажуулахад асуудал гарлаа.</v>
+        <v>Хуримтлалын анхааруулга</v>
       </c>
       <c r="C21" t="str">
         <v/>
@@ -698,10 +698,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Accumulation Warning</v>
+        <v>Additional Win</v>
       </c>
       <c r="B22" t="str">
-        <v>Хуримтлалын анхааруулга</v>
+        <v>Нэмэлт ялалт</v>
       </c>
       <c r="C22" t="str">
         <v/>
@@ -712,10 +712,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Additional Win</v>
+        <v>Admit One To</v>
       </c>
       <c r="B23" t="str">
-        <v>Нэмэлт ялалт</v>
+        <v>Эрх нэг</v>
       </c>
       <c r="C23" t="str">
         <v/>
@@ -726,10 +726,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Admit One To</v>
+        <v>Advanced</v>
       </c>
       <c r="B24" t="str">
-        <v>Эрх нэг</v>
+        <v>Дэвшилтэт</v>
       </c>
       <c r="C24" t="str">
         <v/>
@@ -740,10 +740,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Advanced</v>
+        <v>After</v>
       </c>
       <c r="B25" t="str">
-        <v>Дэвшилтэт</v>
+        <v>Дараа нь</v>
       </c>
       <c r="C25" t="str">
         <v/>
@@ -754,10 +754,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>After</v>
+        <v>Bonus Bell</v>
       </c>
       <c r="B26" t="str">
-        <v>Дараа нь</v>
+        <v>Бонус хонх</v>
       </c>
       <c r="C26" t="str">
         <v/>
@@ -768,10 +768,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Bonus Bell</v>
+        <v>3 or more Bell icons triggers the Bonus Round.</v>
       </c>
       <c r="B27" t="str">
-        <v>Бонус хонх</v>
+        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
       </c>
       <c r="C27" t="str">
         <v/>
@@ -782,10 +782,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>3 or more Bell icons triggers the Bonus Round.</v>
+        <v>3 icons trigger 10 free spins at 2X multiplier. 4 icons trigger 20 spins at 3X. 5 icons trigger 40 spins at 4X.</v>
       </c>
       <c r="B28" t="str">
-        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
+        <v>3 тэмдэг нь 2X үржүүлж 10 удаа үнэгүй эргүүлэх эрх өгнө. 4 тэмдэг нь 3X үржүүлж 20 удаа эргүүлэх эрх өгнө. 5 тэмдэг нь 4X үржүүлж 40 удаа эргүүлэх эрх өгнө.</v>
       </c>
       <c r="C28" t="str">
         <v/>
@@ -796,10 +796,10 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>3 or more Bell icons triggers the Bonus Round.</v>
+        <v>Search the boxcars until you find an empty one.</v>
       </c>
       <c r="B29" t="str">
-        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
+        <v>Битүү вагонуудаас хоосныг олох хүртлээ хай.</v>
       </c>
       <c r="C29" t="str">
         <v/>
@@ -810,10 +810,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>3 or more Bell icons triggers the Bonus Round.</v>
+        <v>All games</v>
       </c>
       <c r="B30" t="str">
-        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
+        <v>Бүх тоглоом</v>
       </c>
       <c r="C30" t="str">
         <v/>
@@ -824,10 +824,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Search the boxcars until you find an empty one.</v>
+        <v>Any</v>
       </c>
       <c r="B31" t="str">
-        <v>Битүү вагонуудаас хоосныг олох хүртлээ хай.</v>
+        <v>Аль ч</v>
       </c>
       <c r="C31" t="str">
         <v/>
@@ -838,10 +838,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>All games</v>
+        <v>ANY 3</v>
       </c>
       <c r="B32" t="str">
-        <v>Бүх тоглоом</v>
+        <v>АЛЬ Ч 3</v>
       </c>
       <c r="C32" t="str">
         <v/>
@@ -852,10 +852,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Any</v>
+        <v>An error has occurred</v>
       </c>
       <c r="B33" t="str">
-        <v>Аль ч</v>
+        <v>Алдаа гарсан байна</v>
       </c>
       <c r="C33" t="str">
         <v/>
@@ -866,10 +866,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>ANY 3</v>
+        <v>You have 100 spins to discover your fate. Line up Remy and Raoul with The sack of cash to continue!</v>
       </c>
       <c r="B34" t="str">
-        <v>АЛЬ Ч 3</v>
+        <v>Хувь заяагаа олж мэдэхэд тань туслах 100 эргүүлэх эрх байна. Үргэлжлүүлэхийн тулд Реми, Раул хоёрыг шуудайтай мөнгөтэй жагсаа!</v>
       </c>
       <c r="C34" t="str">
         <v/>
@@ -880,10 +880,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>An error has occurred</v>
+        <v>You now have two options:</v>
       </c>
       <c r="B35" t="str">
-        <v>Алдаа гарсан байна</v>
+        <v>Танд одоо хоёр сонголт байна:</v>
       </c>
       <c r="C35" t="str">
         <v/>
@@ -894,10 +894,10 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>You have 100 spins to discover your fate. Line up Remy and Raoul with The sack of cash to continue!</v>
+        <v>5 Forgers pays 5000</v>
       </c>
       <c r="B36" t="str">
-        <v>Хувь заяагаа олж мэдэхэд тань туслах 100 эргүүлэх эрх байна. Үргэлжлүүлэхийн тулд Реми, Раул хоёрыг шуудайтай мөнгөтэй жагсаа!</v>
+        <v>5 Хуурамч бүтээл 5000 өгнө</v>
       </c>
       <c r="C36" t="str">
         <v/>
@@ -908,10 +908,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>5 Forgers pays 5000</v>
+        <v>'Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай.</v>
       </c>
       <c r="B37" t="str">
-        <v>5 Хуурамч бүтээл 5000 өгнө</v>
+        <v>'Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай.</v>
       </c>
       <c r="C37" t="str">
         <v/>
@@ -922,13 +922,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>'Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай.</v>
+        <v>Хуурамч бүтээлийг сонгоод өөрийгөө гудамжны дээрэмчнээс илүү гэдгээ баталж чадвал зурагтаа тохирох худалдан авагч олох болно.</v>
       </c>
       <c r="B38" t="str">
-        <v>'Get 3 or more Art Heist icons to advance to the 'Pick a Forgery' Bonus Round.</v>
+        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
       </c>
       <c r="C38" t="str">
-        <v>'Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай.</v>
+        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
       </c>
       <c r="D38" t="str">
         <v/>
@@ -936,13 +936,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
+        <v>Get 3 or more Art Heist icons to advance to the 'Pick a Forgery' Bonus Round.</v>
       </c>
       <c r="B39" t="str">
-        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
+        <v>Get 3 or more Art Heist icons to advance to the 'Pick a Forgery' Bonus Round.</v>
       </c>
       <c r="C39" t="str">
-        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
+        <v/>
       </c>
       <c r="D39" t="str">
         <v/>
@@ -950,13 +950,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Реми, Раул хоёрт туслахын тулд дараах таван зүйлийг хийх хэрэгтэй:</v>
+        <v>To aid Remy &amp; Raoul you will need to do five things:</v>
       </c>
       <c r="B40" t="str">
         <v>To aid Remy &amp; Raoul you will need to do five things:</v>
       </c>
       <c r="C40" t="str">
-        <v>Реми, Раул хоёрт туслахын тулд дараах таван зүйлийг хийх хэрэгтэй:</v>
+        <v/>
       </c>
       <c r="D40" t="str">
         <v/>
@@ -964,13 +964,13 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Гэхдээ Реми, Раул хоёр тийм ч амархан бууж өгдөггүй. Өөр хулгай хийж үзээрэй!</v>
+        <v>But Remy and Raoul don't give up easily. Try another heist!</v>
       </c>
       <c r="B41" t="str">
         <v>But Remy and Raoul don't give up easily. Try another heist!</v>
       </c>
       <c r="C41" t="str">
-        <v>Гэхдээ Реми, Раул хоёр тийм ч амархан бууж өгдөггүй. Өөр хулгай хийж үзээрэй!</v>
+        <v/>
       </c>
       <c r="D41" t="str">
         <v/>
@@ -978,13 +978,13 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
+        <v>REEL CRIME: Art Heist.</v>
+      </c>
+      <c r="B42" t="str">
         <v>REEL CRIME: Урлагийн бүтээлийн хулгай.</v>
       </c>
-      <c r="B42" t="str">
-        <v>REEL CRIME: Art Heist.</v>
-      </c>
       <c r="C42" t="str">
-        <v>REEL CRIME: Урлагийн бүтээлийн хулгай.</v>
+        <v/>
       </c>
       <c r="D42" t="str">
         <v/>
@@ -992,10 +992,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
+        <v>Get 3 or more Art Heist icons to trigger the 'Find your Painting' Bonus round.</v>
+      </c>
+      <c r="B43" t="str">
         <v>'Уран зургаа олох' бонус үеийг идэвхжүүлэх бол 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг олж аваарай.</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Get 3 or more Art Heist icons to trigger the 'Find your Painting' Bonus round.</v>
       </c>
       <c r="C43" t="str">
         <v>'Уран зургаа олох' бонус үеийг идэвхжүүлэх бол 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг олж аваарай.</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
+        <v>At least 4 of any of the Scatter Masterpiece paintings anywhere on the reels will begin a heist for that painting!  The Masterpiece paintings have a purple background.</v>
+      </c>
+      <c r="B44" t="str">
         <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно!  Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
       </c>
-      <c r="B44" t="str">
-        <v>At least 4 of any of the Scatter Masterpiece paintings anywhere on the reels will begin a heist for that painting!  The Masterpiece paintings have a purple background.</v>
-      </c>
       <c r="C44" t="str">
-        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно!  Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
+        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно! Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
       </c>
       <c r="D44" t="str">
-        <v/>
+        <v>Removed the extra space before the exclamation mark for consistency.</v>
       </c>
     </row>
     <row r="45">
@@ -1034,7 +1034,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Таныг түүхийн номонд бичих - аль эсвэл шоронд хийх шийдэмгий зорилго!</v>
+        <v>A lofty goal but one which could secure your place in the history books - or in a cell!</v>
       </c>
       <c r="B46" t="str">
         <v>A lofty goal but one which could secure your place in the history books - or in a cell!</v>

--- a/result.xlsx
+++ b/result.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,7 +424,7 @@
         <v>Хэрхэн тоглох тухай</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>Хэрхэн тоглох тухай</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -438,7 +438,7 @@
         <v>Цуцлах</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Цуцлах</v>
       </c>
       <c r="D3" t="str">
         <v/>
@@ -452,7 +452,7 @@
         <v>Жакпот хийхэд ганц эргүүлэх дутуу</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>Жакпот хийхэд ганц эргүүлэх дутуу</v>
       </c>
       <c r="D4" t="str">
         <v/>
@@ -460,13 +460,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>5 Jackpot symbols on any winning line will award Progressive Jackpot when playing MAX bet!</v>
+        <v>7's IN THIS ORDER</v>
       </c>
       <c r="B5" t="str">
-        <v>МАКС бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
+        <v>ЭНЭ ДАРААЛЛААР 7</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>ЭНЭ ДАРААЛЛААР 7</v>
       </c>
       <c r="D5" t="str">
         <v/>
@@ -474,13 +474,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>50 Line Chart</v>
+        <v>5 Jackpot symbols on any winning line will award Progressive Jackpot when playing MAX bet!</v>
       </c>
       <c r="B6" t="str">
-        <v>50 шугаман график</v>
+        <v>МАКС бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>МАКС бет тоглож байхад ямар ч хожлын шугам дээрх 5 Жакпот тэмдэг Прогрессив жакпот олгоно!</v>
       </c>
       <c r="D6" t="str">
         <v/>
@@ -488,13 +488,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3 or more Scatter symbols will award 10 Free spins</v>
+        <v>50 Line Chart</v>
       </c>
       <c r="B7" t="str">
-        <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
+        <v>50 шугаман график</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>50 шугаман график</v>
       </c>
       <c r="D7" t="str">
         <v/>
@@ -502,13 +502,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>1st and 5th reels are wild during Jackpot Can't Lose spins! HUGE WIN possibilities!</v>
+        <v>3 or more Scatter symbols will award 10 Free spins</v>
       </c>
       <c r="B8" t="str">
-        <v>Жакпот алдаж болохгүйг эргүүлэх үед 1 ба 5-р reel нь вайлд байдаг! МАШ ИХЭЭР ЯЛАХ боломжууд!</v>
+        <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>3 эсвэл түүнээс дээш Скаттер тэмдэг нь 10 удаа үнэгүй эргүүлэх эрх олгоно</v>
       </c>
       <c r="D8" t="str">
         <v/>
@@ -516,13 +516,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Click Anywhere to Skip Intro</v>
+        <v>3D Slots</v>
       </c>
       <c r="B9" t="str">
-        <v>Танилцуулгыг алгасах бол хаана ч хамаагүй дарна уу</v>
+        <v>3D слот</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>3D слот</v>
       </c>
       <c r="D9" t="str">
         <v/>
@@ -530,13 +530,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>5, 10, or 15 spins!</v>
+        <v>1st and 5th reels are wild during Jackpot Can't Lose spins! HUGE WIN possibilities!</v>
       </c>
       <c r="B10" t="str">
-        <v>5, 10 эсвэл 15 удаагийн эргэлт!</v>
+        <v>Жакпот алдаж болохгүйг эргүүлэх үед 1 ба 5-р reel нь вайлд байдаг! МАШ ИХЭЭР ЯЛАХ боломжууд!</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Жакпот алдаж болохгүйг эргүүлэх үед 1 ба 5-р reel нь вайлд байдаг! МАШ ИХЭЭР ЯЛАХ боломжууд!</v>
       </c>
       <c r="D10" t="str">
         <v/>
@@ -544,13 +544,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Behind each tile is either a Diamond or a Bomb. Uncover Diamonds to increase your prize!</v>
+        <v>Click Anywhere to Skip Intro</v>
       </c>
       <c r="B11" t="str">
-        <v>Дөрвөлжин бүрийн ард Очир эрдэнэ эсвэл Тэсрэх бөмбөг байгаа. Шагналаа нэмэгдүүлэхийн тулд Очир эрдэнийг нээ!</v>
+        <v>Танилцуулгыг алгасах бол хаана ч хамаагүй дарна уу</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>Танилцуулгыг алгасах бол хаана ч хамаагүй дарна уу</v>
       </c>
       <c r="D11" t="str">
         <v/>
@@ -558,13 +558,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>= 10 spins with a 2x multiplier</v>
+        <v>5, 10, or 15 spins!</v>
       </c>
       <c r="B12" t="str">
-        <v>= 2х үржүүлсэн 10 удаагийн эргэлт</v>
+        <v>5, 10 эсвэл 15 удаагийн эргэлт!</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>5, 10 эсвэл 15 удаагийн эргэлт!</v>
       </c>
       <c r="D12" t="str">
         <v/>
@@ -572,13 +572,13 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>= 10 spins with a 3x multiplier</v>
+        <v>Behind each tile is either a Diamond or a Bomb. Uncover Diamonds to increase your prize!</v>
       </c>
       <c r="B13" t="str">
-        <v>= 3x үржүүлсэн 10 удаагийн эргэлт</v>
+        <v>Дөрвөлжин бүрийн ард Очир эрдэнэ эсвэл Тэсрэх бөмбөг байгаа. Шагналаа нэмэгдүүлэхийн тулд Очир эрдэнийг нээ!</v>
       </c>
       <c r="C13" t="str">
-        <v/>
+        <v>Дөрвөлжин бүрийн ард Очир эрдэнэ эсвэл Тэсрэх бөмбөг байгаа. Шагналаа нэмэгдүүлэхийн тулд Очир эрдэнийг нээ!</v>
       </c>
       <c r="D13" t="str">
         <v/>
@@ -586,13 +586,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>3 or more Barrels triggers the Bonus Round!</v>
+        <v>= 10 spins with a 2x multiplier</v>
       </c>
       <c r="B14" t="str">
-        <v>3 эсвэл түүнээс дээш Баррель нь бонус үеийг идэвхжүүлнэ!</v>
+        <v>= 2х үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>= 2х үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -600,13 +600,13 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Jaguar</v>
+        <v>= 10 spins with a 3x multiplier</v>
       </c>
       <c r="B15" t="str">
-        <v>Ягуар</v>
+        <v>= 3x үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>= 3x үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="D15" t="str">
         <v/>
@@ -614,13 +614,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Multiplier Maze</v>
+        <v>3 or more Barrels triggers the Bonus Round!</v>
       </c>
       <c r="B16" t="str">
-        <v>Үржүүлэгч лабиринт</v>
+        <v>3 эсвэл түүнээс дээш Баррель нь бонус үеийг идэвхжүүлнэ!</v>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>3 эсвэл түүнээс дээш Баррель нь бонус үеийг идэвхжүүлнэ!</v>
       </c>
       <c r="D16" t="str">
         <v/>
@@ -628,13 +628,13 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>= 10 spins with a 1x multiplier</v>
+        <v>Jaguar</v>
       </c>
       <c r="B17" t="str">
-        <v>= 1x үржүүлсэн 10 удаагийн эргэлт</v>
+        <v>Ягуар</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Ягуар</v>
       </c>
       <c r="D17" t="str">
         <v/>
@@ -642,13 +642,13 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Access is not allowed from your region.</v>
+        <v>Multiplier Maze</v>
       </c>
       <c r="B18" t="str">
-        <v>Таны бүс нутгаас нэвтрэх эрхгүй байна.</v>
+        <v>Үржүүлэгч лабиринт</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>Үржүүлэгч лабиринт</v>
       </c>
       <c r="D18" t="str">
         <v/>
@@ -656,13 +656,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Account error:</v>
+        <v>= 10 spins with a 1x multiplier</v>
       </c>
       <c r="B19" t="str">
-        <v>Дансанд алдаа гарлаа:</v>
+        <v>= 1x үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="C19" t="str">
-        <v/>
+        <v>= 1x үржүүлсэн 10 удаагийн эргэлт</v>
       </c>
       <c r="D19" t="str">
         <v/>
@@ -670,13 +670,13 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>There was a problem authenticating your account.</v>
+        <v>Access is not allowed from your region.</v>
       </c>
       <c r="B20" t="str">
-        <v>Таны дансыг баталгаажуулахад асуудал гарлаа.</v>
+        <v>Таны бүс нутгаас нэвтрэх эрхгүй байна.</v>
       </c>
       <c r="C20" t="str">
-        <v/>
+        <v>Таны бүс нутгаас нэвтрэх эрхгүй байна.</v>
       </c>
       <c r="D20" t="str">
         <v/>
@@ -684,13 +684,13 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Accumulation Warning</v>
+        <v>Account error:</v>
       </c>
       <c r="B21" t="str">
-        <v>Хуримтлалын анхааруулга</v>
+        <v>Дансанд алдаа гарлаа:</v>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>Дансанд алдаа гарлаа:</v>
       </c>
       <c r="D21" t="str">
         <v/>
@@ -698,13 +698,13 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Additional Win</v>
+        <v>There was a problem authenticating your account.</v>
       </c>
       <c r="B22" t="str">
-        <v>Нэмэлт ялалт</v>
+        <v>Таны дансыг баталгаажуулахад асуудал гарлаа.</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>Таны дансыг баталгаажуулахад асуудал гарлаа.</v>
       </c>
       <c r="D22" t="str">
         <v/>
@@ -712,13 +712,13 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Admit One To</v>
+        <v>Accumulation Warning</v>
       </c>
       <c r="B23" t="str">
-        <v>Эрх нэг</v>
+        <v>Хуримтлалын анхааруулга</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>Хуримтлалын анхааруулга</v>
       </c>
       <c r="D23" t="str">
         <v/>
@@ -726,13 +726,13 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Advanced</v>
+        <v>Additional Win</v>
       </c>
       <c r="B24" t="str">
-        <v>Дэвшилтэт</v>
+        <v>Нэмэлт ялалт</v>
       </c>
       <c r="C24" t="str">
-        <v/>
+        <v>Нэмэлт ялалт</v>
       </c>
       <c r="D24" t="str">
         <v/>
@@ -740,13 +740,13 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>After</v>
+        <v>Admit One To</v>
       </c>
       <c r="B25" t="str">
-        <v>Дараа нь</v>
+        <v>Эрх нэг</v>
       </c>
       <c r="C25" t="str">
-        <v/>
+        <v>Эрх нэг</v>
       </c>
       <c r="D25" t="str">
         <v/>
@@ -754,13 +754,13 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Bonus Bell</v>
+        <v>Advanced</v>
       </c>
       <c r="B26" t="str">
-        <v>Бонус хонх</v>
+        <v>Дэвшилтэт</v>
       </c>
       <c r="C26" t="str">
-        <v/>
+        <v>Дэвшилтэт</v>
       </c>
       <c r="D26" t="str">
         <v/>
@@ -768,13 +768,13 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>3 or more Bell icons triggers the Bonus Round.</v>
+        <v>After</v>
       </c>
       <c r="B27" t="str">
-        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
+        <v>Дараа нь</v>
       </c>
       <c r="C27" t="str">
-        <v/>
+        <v>Дараа нь</v>
       </c>
       <c r="D27" t="str">
         <v/>
@@ -782,13 +782,13 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>3 icons trigger 10 free spins at 2X multiplier. 4 icons trigger 20 spins at 3X. 5 icons trigger 40 spins at 4X.</v>
+        <v>Bonus Bell</v>
       </c>
       <c r="B28" t="str">
-        <v>3 тэмдэг нь 2X үржүүлж 10 удаа үнэгүй эргүүлэх эрх өгнө. 4 тэмдэг нь 3X үржүүлж 20 удаа эргүүлэх эрх өгнө. 5 тэмдэг нь 4X үржүүлж 40 удаа эргүүлэх эрх өгнө.</v>
+        <v>Бонус хонх</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>Бонус хонх</v>
       </c>
       <c r="D28" t="str">
         <v/>
@@ -796,13 +796,13 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Search the boxcars until you find an empty one.</v>
+        <v>3 or more Bell icons triggers the Bonus Round.</v>
       </c>
       <c r="B29" t="str">
-        <v>Битүү вагонуудаас хоосныг олох хүртлээ хай.</v>
+        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
       </c>
       <c r="C29" t="str">
-        <v/>
+        <v>3 эсвэл түүнээс дээш Хонхны дүрс нь Бонус үеийг идэвхжүүлдэг.</v>
       </c>
       <c r="D29" t="str">
         <v/>
@@ -810,13 +810,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>All games</v>
+        <v>BOXCAR</v>
       </c>
       <c r="B30" t="str">
-        <v>Бүх тоглоом</v>
+        <v>БИТҮҮ ВАГОН</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>БИТҮҮ ВАГОН</v>
       </c>
       <c r="D30" t="str">
         <v/>
@@ -824,13 +824,13 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Any</v>
+        <v>CASEY JONES FREE SPINS</v>
       </c>
       <c r="B31" t="str">
-        <v>Аль ч</v>
+        <v>КЭЙСИ ЖОНС ҮНЭГҮЙ ЭРГҮҮЛЭХ ЭРХ</v>
       </c>
       <c r="C31" t="str">
-        <v/>
+        <v>КЭЙСИ ЖОНС ҮНЭГҮЙ ЭРГҮҮЛЭХ ЭРХ</v>
       </c>
       <c r="D31" t="str">
         <v/>
@@ -838,13 +838,13 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>ANY 3</v>
+        <v>3 icons trigger 10 free spins at 2X multiplier. 4 icons trigger 20 spins at 3X. 5 icons trigger 40 spins at 4X.</v>
       </c>
       <c r="B32" t="str">
-        <v>АЛЬ Ч 3</v>
+        <v>3 тэмдэг нь 2X үржүүлж 10 удаа үнэгүй эргүүлэх эрх өгнө. 4 тэмдэг нь 3X үржүүлж 20 удаа эргүүлэх эрх өгнө. 5 тэмдэг нь 4X үржүүлж 40 удаа эргүүлэх эрх өгнө.</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>3 тэмдэг нь 2X үржүүлж 10 удаа үнэгүй эргүүлэх эрх өгнө. 4 тэмдэг нь 3X үржүүлж 20 удаа эргүүлэх эрх өгнө. 5 тэмдэг нь 4X үржүүлж 40 удаа эргүүлэх эрх өгнө.</v>
       </c>
       <c r="D32" t="str">
         <v/>
@@ -852,13 +852,13 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>An error has occurred</v>
+        <v>Search the boxcars until you find an empty one.</v>
       </c>
       <c r="B33" t="str">
-        <v>Алдаа гарсан байна</v>
+        <v>Битүү вагонуудаас хоосныг олох хүртлээ хай.</v>
       </c>
       <c r="C33" t="str">
-        <v/>
+        <v>Битүү вагонуудаас хоосныг олох хүртлээ хай.</v>
       </c>
       <c r="D33" t="str">
         <v/>
@@ -866,13 +866,13 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>You have 100 spins to discover your fate. Line up Remy and Raoul with The sack of cash to continue!</v>
+        <v>All games</v>
       </c>
       <c r="B34" t="str">
-        <v>Хувь заяагаа олж мэдэхэд тань туслах 100 эргүүлэх эрх байна. Үргэлжлүүлэхийн тулд Реми, Раул хоёрыг шуудайтай мөнгөтэй жагсаа!</v>
+        <v>Бүх тоглоом</v>
       </c>
       <c r="C34" t="str">
-        <v/>
+        <v>Бүх тоглоом</v>
       </c>
       <c r="D34" t="str">
         <v/>
@@ -880,13 +880,13 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>You now have two options:</v>
+        <v>Any</v>
       </c>
       <c r="B35" t="str">
-        <v>Танд одоо хоёр сонголт байна:</v>
+        <v>Аль ч</v>
       </c>
       <c r="C35" t="str">
-        <v/>
+        <v>Аль ч</v>
       </c>
       <c r="D35" t="str">
         <v/>
@@ -894,13 +894,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>5 Forgers pays 5000</v>
+        <v>ANY 3</v>
       </c>
       <c r="B36" t="str">
-        <v>5 Хуурамч бүтээл 5000 өгнө</v>
+        <v>АЛЬ Ч 3</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>АЛЬ Ч 3</v>
       </c>
       <c r="D36" t="str">
         <v/>
@@ -908,13 +908,13 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>'Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай.</v>
+        <v>An error has occurred</v>
       </c>
       <c r="B37" t="str">
-        <v>'Хуурамчийг сонгох' бонус үе рүү дээшлэхийн тулд 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг аваарай.</v>
+        <v>Алдаа гарсан байна</v>
       </c>
       <c r="C37" t="str">
-        <v/>
+        <v>Алдаа гарсан байна</v>
       </c>
       <c r="D37" t="str">
         <v/>
@@ -922,13 +922,13 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Хуурамч бүтээлийг сонгоод өөрийгөө гудамжны дээрэмчнээс илүү гэдгээ баталж чадвал зурагтаа тохирох худалдан авагч олох болно.</v>
+        <v>You have 100 spins to discover your fate. Line up Remy and Raoul with The sack of cash to continue!</v>
       </c>
       <c r="B38" t="str">
-        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
+        <v>Хувь заяагаа олж мэдэхэд тань туслах 100 эргүүлэх эрх байна. Үргэлжлүүлэхийн тулд Реми, Раул хоёрыг шуудайтай мөнгөтэй жагсаа!</v>
       </c>
       <c r="C38" t="str">
-        <v>Prove you're more than a common street hoodlum by picking the forgery and you will have found the right buyer for your painting.</v>
+        <v>Хувь заяагаа олж мэдэхэд тань туслах 100 эргүүлэх эрх байна. Үргэлжлүүлэхийн тулд Реми, Раул хоёрыг шуудайтай мөнгөтэй жагсаа!</v>
       </c>
       <c r="D38" t="str">
         <v/>
@@ -936,13 +936,13 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Get 3 or more Art Heist icons to advance to the 'Pick a Forgery' Bonus Round.</v>
+        <v>You now have two options:</v>
       </c>
       <c r="B39" t="str">
-        <v>Get 3 or more Art Heist icons to advance to the 'Pick a Forgery' Bonus Round.</v>
+        <v>Танд одоо хоёр сонголт байна:</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>Танд одоо хоёр сонголт байна:</v>
       </c>
       <c r="D39" t="str">
         <v/>
@@ -950,13 +950,13 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>To aid Remy &amp; Raoul you will need to do five things:</v>
+        <v>5 Forgers pays 5000</v>
       </c>
       <c r="B40" t="str">
-        <v>To aid Remy &amp; Raoul you will need to do five things:</v>
+        <v>5 Хуурамч бүтээл 5000 өгнө</v>
       </c>
       <c r="C40" t="str">
-        <v/>
+        <v>5 Хуурамч бүтээл 5000 өгнө</v>
       </c>
       <c r="D40" t="str">
         <v/>
@@ -964,10 +964,10 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>But Remy and Raoul don't give up easily. Try another heist!</v>
+        <v>You've made it to the beach!</v>
       </c>
       <c r="B41" t="str">
-        <v>But Remy and Raoul don't give up easily. Try another heist!</v>
+        <v>Та далайн эрэгт хүрч ирлээ!</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -978,10 +978,10 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>REEL CRIME: Art Heist.</v>
+        <v>And a Big Sack of Cash</v>
       </c>
       <c r="B42" t="str">
-        <v>REEL CRIME: Урлагийн бүтээлийн хулгай.</v>
+        <v>Мөн том шуудай мөнгө</v>
       </c>
       <c r="C42" t="str">
         <v/>
@@ -992,13 +992,13 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Get 3 or more Art Heist icons to trigger the 'Find your Painting' Bonus round.</v>
+        <v>Road Bloque!</v>
       </c>
       <c r="B43" t="str">
-        <v>'Уран зургаа олох' бонус үеийг идэвхжүүлэх бол 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг олж аваарай.</v>
+        <v>Замын хаалт!</v>
       </c>
       <c r="C43" t="str">
-        <v>'Уран зургаа олох' бонус үеийг идэвхжүүлэх бол 3 эсвэл түүнээс дээш Урлагийн бүтээлийн хулгайн дүрсийг олж аваарай.</v>
+        <v/>
       </c>
       <c r="D43" t="str">
         <v/>
@@ -1006,24 +1006,24 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>At least 4 of any of the Scatter Masterpiece paintings anywhere on the reels will begin a heist for that painting!  The Masterpiece paintings have a purple background.</v>
+        <v>Keep an eye out for Art Heist bonuses!</v>
       </c>
       <c r="B44" t="str">
-        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно!  Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
+        <v>Урлагийн бүтээлийн хулгайн урамшууллыг анхааралтай ажиглаарай!</v>
       </c>
       <c r="C44" t="str">
-        <v>Reel дээрх 'Скаттер бүтээл'-ийн аль ч зургийн дор хаяж 4 нь тухайн зургийн хулгайг эхлүүлэх болно! Шилдэг бүтээл зургууд нь нил ягаан дэвсгэртэй байна.</v>
+        <v/>
       </c>
       <c r="D44" t="str">
-        <v>Removed the extra space before the exclamation mark for consistency.</v>
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Та Парисын Лувраас дэлхийн хамгийн алдартай уран зургийг хулгайлах оролдлого хийхээр шийдсэн.</v>
+        <v>Play for FUN</v>
       </c>
       <c r="B45" t="str">
-        <v>You've decided to attempt a heist of the world's most famous painting from the Louvre in Paris.</v>
+        <v>ЗУГААТАЙ тоглох</v>
       </c>
       <c r="C45" t="str">
         <v/>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>A lofty goal but one which could secure your place in the history books - or in a cell!</v>
+        <v>Play for REAL</v>
       </c>
       <c r="B46" t="str">
-        <v>A lofty goal but one which could secure your place in the history books - or in a cell!</v>
+        <v>БОДИТООР тоглох</v>
       </c>
       <c r="C46" t="str">
         <v/>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>ДАЛАЙН ЭРЭГ!</v>
+        <v>Mission Implausible</v>
       </c>
       <c r="B47" t="str">
-        <v>THE BEACH!</v>
+        <v>Итгэмээргүй даалгавар</v>
       </c>
       <c r="C47" t="str">
         <v/>
@@ -1062,10 +1062,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Тайван сууж сайхан өнгөрүүлээрэй...</v>
+        <v>Run Raoul Run</v>
       </c>
       <c r="B48" t="str">
-        <v>Sit back and enjoy...</v>
+        <v>Гүйгээрэй Раул гүйгээрэй</v>
       </c>
       <c r="C48" t="str">
         <v/>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Та далайн эрэгт хүрч ирлээ!</v>
+        <v>Monsieur Moneybags</v>
       </c>
       <c r="B49" t="str">
-        <v>You've made it to the beach!</v>
+        <v>Мөнгөтэй эрхэм</v>
       </c>
       <c r="C49" t="str">
         <v/>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Мөн том шуудай мөнгө</v>
+        <v>Unhappy Hooker</v>
       </c>
       <c r="B50" t="str">
-        <v>And a Big Sack of Cash</v>
+        <v>Аз жаргалгүй биеэ үнэлэгч</v>
       </c>
       <c r="C50" t="str">
         <v/>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>(Хар зах)</v>
+        <v>The Duke Drops In</v>
       </c>
       <c r="B51" t="str">
-        <v>(The Black Market)</v>
+        <v>Гүн унагах</v>
       </c>
       <c r="C51" t="str">
         <v/>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Замын хаалт!</v>
+        <v>Me Tarzan You Gone!</v>
       </c>
       <c r="B52" t="str">
-        <v>Road Bloque!</v>
+        <v>Би Тарзан чи яв!</v>
       </c>
       <c r="C52" t="str">
         <v/>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Урлагийн бүтээлийн хулгайн урамшууллыг анхааралтай ажиглаарай!</v>
+        <v>Mona Remy</v>
       </c>
       <c r="B53" t="str">
-        <v>Keep an eye out for Art Heist bonuses!</v>
+        <v>Мона Реми</v>
       </c>
       <c r="C53" t="str">
         <v/>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>ЗУГААТАЙ тоглох</v>
+        <v>Run Remy Run</v>
       </c>
       <c r="B54" t="str">
-        <v>Play for FUN</v>
+        <v>Гүйгээрэй Реми гүйгээрэй</v>
       </c>
       <c r="C54" t="str">
         <v/>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>БОДИТООР тоглох</v>
+        <v>He Ain't Heavy</v>
       </c>
       <c r="B55" t="str">
-        <v>Play for REAL</v>
+        <v>Тэр хүнд биш</v>
       </c>
       <c r="C55" t="str">
         <v/>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Итгэмээргүй даалгавар</v>
+        <v>A Bad Trip</v>
       </c>
       <c r="B56" t="str">
-        <v>Mission Implausible</v>
+        <v>Таагүй аялал</v>
       </c>
       <c r="C56" t="str">
         <v/>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Гүйгээрэй Раул гүйгээрэй</v>
+        <v>Chariot du Paddy</v>
       </c>
       <c r="B57" t="str">
-        <v>Run Raoul Run</v>
+        <v>Chariot du Paddy</v>
       </c>
       <c r="C57" t="str">
         <v/>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Мөнгөтэй эрхэм</v>
+        <v>Sacre Bleu!</v>
       </c>
       <c r="B58" t="str">
-        <v>Monsieur Moneybags</v>
+        <v>Sacre Bleu!</v>
       </c>
       <c r="C58" t="str">
         <v/>
@@ -1216,10 +1216,10 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Аз жаргалгүй биеэ үнэлэгч</v>
+        <v>Gendarme Alarm</v>
       </c>
       <c r="B59" t="str">
-        <v>Unhappy Hooker</v>
+        <v>Цагдаагийн дохиолол</v>
       </c>
       <c r="C59" t="str">
         <v/>
@@ -1230,147 +1230,21 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Гүн унагах</v>
+        <v>The Getaway</v>
       </c>
       <c r="B60" t="str">
-        <v>The Duke Drops In</v>
+        <v>Зугтаа</v>
       </c>
       <c r="C60" t="str">
         <v/>
       </c>
       <c r="D60" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>Би Тарзан чи яв!</v>
-      </c>
-      <c r="B61" t="str">
-        <v>Me Tarzan You Gone!</v>
-      </c>
-      <c r="C61" t="str">
-        <v/>
-      </c>
-      <c r="D61" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>Мона Реми</v>
-      </c>
-      <c r="B62" t="str">
-        <v>Mona Remy</v>
-      </c>
-      <c r="C62" t="str">
-        <v/>
-      </c>
-      <c r="D62" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>Гүйгээрэй Реми гүйгээрэй</v>
-      </c>
-      <c r="B63" t="str">
-        <v>Run Remy Run</v>
-      </c>
-      <c r="C63" t="str">
-        <v/>
-      </c>
-      <c r="D63" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>Тэр хүнд биш</v>
-      </c>
-      <c r="B64" t="str">
-        <v>He Ain't Heavy</v>
-      </c>
-      <c r="C64" t="str">
-        <v/>
-      </c>
-      <c r="D64" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>Таагүй аялал</v>
-      </c>
-      <c r="B65" t="str">
-        <v>A Bad Trip</v>
-      </c>
-      <c r="C65" t="str">
-        <v/>
-      </c>
-      <c r="D65" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>Chariot du Paddy</v>
-      </c>
-      <c r="B66" t="str">
-        <v>Chariot du Paddy</v>
-      </c>
-      <c r="C66" t="str">
-        <v/>
-      </c>
-      <c r="D66" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Sacre Bleu!</v>
-      </c>
-      <c r="B67" t="str">
-        <v>Sacre Bleu!</v>
-      </c>
-      <c r="C67" t="str">
-        <v/>
-      </c>
-      <c r="D67" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>Цагдаагийн дохиолол</v>
-      </c>
-      <c r="B68" t="str">
-        <v>Gendarme Alarm</v>
-      </c>
-      <c r="C68" t="str">
-        <v/>
-      </c>
-      <c r="D68" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Зугтаа</v>
-      </c>
-      <c r="B69" t="str">
-        <v>The Getaway</v>
-      </c>
-      <c r="C69" t="str">
-        <v/>
-      </c>
-      <c r="D69" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D60"/>
   </ignoredErrors>
 </worksheet>
 </file>